--- a/RAW_PUBLIC/MaySales2024_public.xlsx
+++ b/RAW_PUBLIC/MaySales2024_public.xlsx
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORD_0000001</t>
+          <t>ORD_0012566</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -598,7 +598,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0012567</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0012567</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -740,7 +740,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORD_0000003</t>
+          <t>ORD_0012568</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -815,7 +815,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORD_0000004</t>
+          <t>ORD_0012569</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -886,7 +886,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORD_0000005</t>
+          <t>ORD_0012570</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORD_0000006</t>
+          <t>ORD_0012571</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1028,7 +1028,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORD_0000007</t>
+          <t>ORD_0012572</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1099,7 +1099,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORD_0000008</t>
+          <t>ORD_0012573</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1170,7 +1170,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORD_0000009</t>
+          <t>ORD_0012574</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1241,7 +1241,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORD_0000010</t>
+          <t>ORD_0012575</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORD_0000011</t>
+          <t>ORD_0012576</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1383,7 +1383,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORD_0000012</t>
+          <t>ORD_0012577</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1458,7 +1458,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORD_0000013</t>
+          <t>ORD_0012578</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1529,7 +1529,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORD_0000014</t>
+          <t>ORD_0012579</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1604,7 +1604,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD_0000015</t>
+          <t>ORD_0012580</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1675,7 +1675,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORD_0000016</t>
+          <t>ORD_0012581</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1746,7 +1746,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0012582</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1817,7 +1817,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0012582</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0012582</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1959,7 +1959,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORD_0000018</t>
+          <t>ORD_0012583</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2034,7 +2034,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORD_0000018</t>
+          <t>ORD_0012583</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORD_0000018</t>
+          <t>ORD_0012583</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2184,7 +2184,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORD_0000019</t>
+          <t>ORD_0012584</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2255,7 +2255,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORD_0000020</t>
+          <t>ORD_0012585</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2330,7 +2330,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORD_0000021</t>
+          <t>ORD_0012586</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2401,7 +2401,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORD_0000022</t>
+          <t>ORD_0012587</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2472,7 +2472,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0012588</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2543,7 +2543,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0012589</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2618,7 +2618,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORD_0000025</t>
+          <t>ORD_0012590</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2689,7 +2689,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORD_0000026</t>
+          <t>ORD_0012591</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0012592</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2835,7 +2835,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORD_0000028</t>
+          <t>ORD_0012593</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2906,7 +2906,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORD_0000029</t>
+          <t>ORD_0012594</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2977,7 +2977,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0012595</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3048,7 +3048,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0012595</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3119,7 +3119,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORD_0000031</t>
+          <t>ORD_0012596</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3190,7 +3190,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORD_0000031</t>
+          <t>ORD_0012596</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3261,7 +3261,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORD_0000031</t>
+          <t>ORD_0012596</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3332,7 +3332,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0012597</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3403,7 +3403,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0012598</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3474,7 +3474,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0012598</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3545,7 +3545,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0012598</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3616,7 +3616,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0012598</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3687,7 +3687,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0012598</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3758,7 +3758,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0012598</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3829,7 +3829,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0012599</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3900,7 +3900,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORD_0000035</t>
+          <t>ORD_0012600</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3971,7 +3971,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORD_0000036</t>
+          <t>ORD_0012601</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4042,7 +4042,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0012602</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4113,7 +4113,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0012602</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4184,7 +4184,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0012602</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4255,7 +4255,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0012602</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4326,7 +4326,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ORD_0000038</t>
+          <t>ORD_0012603</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4397,7 +4397,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ORD_0000039</t>
+          <t>ORD_0012604</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4468,7 +4468,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ORD_0000039</t>
+          <t>ORD_0012604</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4539,7 +4539,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ORD_0000040</t>
+          <t>ORD_0012605</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4610,7 +4610,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ORD_0000041</t>
+          <t>ORD_0012606</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4681,7 +4681,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORD_0000042</t>
+          <t>ORD_0012607</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4752,7 +4752,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORD_0000043</t>
+          <t>ORD_0012608</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4823,7 +4823,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ORD_0000044</t>
+          <t>ORD_0012609</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4894,7 +4894,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ORD_0000044</t>
+          <t>ORD_0012609</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4965,7 +4965,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ORD_0000045</t>
+          <t>ORD_0012610</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5040,7 +5040,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0012611</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5111,7 +5111,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ORD_0000047</t>
+          <t>ORD_0012612</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5182,7 +5182,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ORD_0000048</t>
+          <t>ORD_0012613</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5253,7 +5253,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0012614</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5324,7 +5324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0012614</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5395,7 +5395,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0012615</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5466,7 +5466,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0012615</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5537,7 +5537,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORD_0000051</t>
+          <t>ORD_0012616</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5608,7 +5608,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0012617</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5679,7 +5679,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORD_0000053</t>
+          <t>ORD_0012618</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5754,7 +5754,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORD_0000054</t>
+          <t>ORD_0012619</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5825,7 +5825,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0012620</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5896,7 +5896,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0012620</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5967,7 +5967,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0012620</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6038,7 +6038,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0012620</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6109,7 +6109,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0012620</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6180,7 +6180,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0012621</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6251,7 +6251,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ORD_0000057</t>
+          <t>ORD_0012622</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6322,7 +6322,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORD_0000057</t>
+          <t>ORD_0012622</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6393,7 +6393,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ORD_0000057</t>
+          <t>ORD_0012622</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6464,7 +6464,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ORD_0000058</t>
+          <t>ORD_0012623</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6535,7 +6535,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ORD_0000058</t>
+          <t>ORD_0012623</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6606,7 +6606,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ORD_0000059</t>
+          <t>ORD_0012624</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6677,7 +6677,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0012625</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6748,7 +6748,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0012625</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6819,7 +6819,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0012625</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6890,7 +6890,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0012625</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6961,7 +6961,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0012625</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -7032,7 +7032,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ORD_0000061</t>
+          <t>ORD_0012626</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -7103,7 +7103,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0012627</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -7174,7 +7174,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0012627</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -7245,7 +7245,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0012627</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -7316,7 +7316,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0012627</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7387,7 +7387,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0012627</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7458,7 +7458,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0012627</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7529,7 +7529,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ORD_0000063</t>
+          <t>ORD_0012628</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -7600,7 +7600,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ORD_0000064</t>
+          <t>ORD_0012629</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -7675,7 +7675,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0012630</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -7746,7 +7746,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ORD_0000066</t>
+          <t>ORD_0012631</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -7817,7 +7817,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ORD_0000067</t>
+          <t>ORD_0012632</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -7888,7 +7888,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ORD_0000067</t>
+          <t>ORD_0012632</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -7959,7 +7959,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ORD_0000068</t>
+          <t>ORD_0012633</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -8030,7 +8030,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0012634</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -8101,7 +8101,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ORD_0000070</t>
+          <t>ORD_0012635</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -8172,7 +8172,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0012636</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -8243,7 +8243,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0012637</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -8314,7 +8314,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ORD_0000073</t>
+          <t>ORD_0012638</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -8385,7 +8385,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ORD_0000074</t>
+          <t>ORD_0012639</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -8456,7 +8456,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ORD_0000075</t>
+          <t>ORD_0012640</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -8527,7 +8527,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ORD_0000076</t>
+          <t>ORD_0012641</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -8602,7 +8602,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ORD_0000077</t>
+          <t>ORD_0012642</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -8673,7 +8673,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ORD_0000078</t>
+          <t>ORD_0012643</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -8744,7 +8744,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ORD_0000079</t>
+          <t>ORD_0012644</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -8815,7 +8815,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ORD_0000079</t>
+          <t>ORD_0012644</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -8886,7 +8886,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ORD_0000080</t>
+          <t>ORD_0012645</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -8957,7 +8957,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ORD_0000081</t>
+          <t>ORD_0012646</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -9032,7 +9032,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ORD_0000082</t>
+          <t>ORD_0012647</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -9103,7 +9103,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ORD_0000083</t>
+          <t>ORD_0012648</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -9174,7 +9174,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0012649</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -9245,7 +9245,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0012649</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -9316,7 +9316,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ORD_0000085</t>
+          <t>ORD_0012650</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -9387,7 +9387,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ORD_0000086</t>
+          <t>ORD_0012651</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -9458,7 +9458,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0012652</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -9529,7 +9529,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0012652</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -9600,7 +9600,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0012652</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -9671,7 +9671,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0012652</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -9742,7 +9742,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0012652</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -9813,7 +9813,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0012652</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -9884,7 +9884,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0012652</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -9955,7 +9955,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0012652</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -10026,7 +10026,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0012653</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -10101,7 +10101,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ORD_0000089</t>
+          <t>ORD_0012654</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -10172,7 +10172,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0012655</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -10243,7 +10243,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ORD_0000091</t>
+          <t>ORD_0012656</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -10314,7 +10314,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ORD_0000091</t>
+          <t>ORD_0012656</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -10385,7 +10385,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ORD_0000092</t>
+          <t>ORD_0012657</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -10456,7 +10456,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ORD_0000093</t>
+          <t>ORD_0012658</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -10527,7 +10527,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ORD_0000094</t>
+          <t>ORD_0012659</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -10598,7 +10598,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ORD_0000095</t>
+          <t>ORD_0012660</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -10669,7 +10669,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ORD_0000096</t>
+          <t>ORD_0012661</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -10740,7 +10740,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ORD_0000096</t>
+          <t>ORD_0012661</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -10811,7 +10811,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ORD_0000097</t>
+          <t>ORD_0012662</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -10886,7 +10886,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ORD_0000098</t>
+          <t>ORD_0012663</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -10957,7 +10957,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ORD_0000099</t>
+          <t>ORD_0012664</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -11028,7 +11028,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ORD_0000100</t>
+          <t>ORD_0012665</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -11099,7 +11099,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ORD_0000101</t>
+          <t>ORD_0012666</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -11170,7 +11170,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0012667</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -11241,7 +11241,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ORD_0000103</t>
+          <t>ORD_0012668</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -11316,7 +11316,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ORD_0000104</t>
+          <t>ORD_0012669</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -11391,7 +11391,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ORD_0000105</t>
+          <t>ORD_0012670</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -11466,7 +11466,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0012671</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -11537,7 +11537,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ORD_0000107</t>
+          <t>ORD_0012672</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -11612,7 +11612,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0012673</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -11683,7 +11683,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ORD_0000109</t>
+          <t>ORD_0012674</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -11754,7 +11754,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ORD_0000110</t>
+          <t>ORD_0012675</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -11825,7 +11825,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ORD_0000111</t>
+          <t>ORD_0012676</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -11896,7 +11896,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ORD_0000112</t>
+          <t>ORD_0012677</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -11967,7 +11967,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ORD_0000112</t>
+          <t>ORD_0012677</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -12038,7 +12038,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ORD_0000112</t>
+          <t>ORD_0012677</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -12109,7 +12109,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ORD_0000113</t>
+          <t>ORD_0012678</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -12180,7 +12180,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ORD_0000114</t>
+          <t>ORD_0012679</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -12251,7 +12251,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ORD_0000115</t>
+          <t>ORD_0012680</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -12322,7 +12322,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ORD_0000116</t>
+          <t>ORD_0012681</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -12393,7 +12393,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ORD_0000117</t>
+          <t>ORD_0012682</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -12464,7 +12464,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ORD_0000117</t>
+          <t>ORD_0012682</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -12535,7 +12535,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0012683</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -12606,7 +12606,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0012683</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -12677,7 +12677,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0012683</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -12748,7 +12748,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0012684</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -12819,7 +12819,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0012684</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -12890,7 +12890,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ORD_0000120</t>
+          <t>ORD_0012685</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -12961,7 +12961,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ORD_0000121</t>
+          <t>ORD_0012686</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -13032,7 +13032,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ORD_0000122</t>
+          <t>ORD_0012687</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -13103,7 +13103,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0012688</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -13178,7 +13178,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ORD_0000124</t>
+          <t>ORD_0012689</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -13249,7 +13249,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ORD_0000125</t>
+          <t>ORD_0012690</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -13320,7 +13320,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ORD_0000126</t>
+          <t>ORD_0012691</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -13391,7 +13391,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ORD_0000127</t>
+          <t>ORD_0012692</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -13462,7 +13462,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ORD_0000128</t>
+          <t>ORD_0012693</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -13533,7 +13533,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0012694</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -13604,7 +13604,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ORD_0000130</t>
+          <t>ORD_0012695</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -13675,7 +13675,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ORD_0000131</t>
+          <t>ORD_0012696</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -13746,7 +13746,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ORD_0000132</t>
+          <t>ORD_0012697</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -13817,7 +13817,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ORD_0000133</t>
+          <t>ORD_0012698</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -13888,7 +13888,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ORD_0000134</t>
+          <t>ORD_0012699</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -13963,7 +13963,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ORD_0000135</t>
+          <t>ORD_0012700</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -14034,7 +14034,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ORD_0000136</t>
+          <t>ORD_0012701</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -14105,7 +14105,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0012702</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -14176,7 +14176,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0012703</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -14247,7 +14247,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ORD_0000139</t>
+          <t>ORD_0012704</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -14318,7 +14318,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ORD_0000140</t>
+          <t>ORD_0012705</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -14389,7 +14389,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ORD_0000141</t>
+          <t>ORD_0012706</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -14460,7 +14460,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ORD_0000142</t>
+          <t>ORD_0012707</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -14531,7 +14531,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ORD_0000143</t>
+          <t>ORD_0012708</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -14602,7 +14602,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ORD_0000144</t>
+          <t>ORD_0012709</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -14673,7 +14673,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ORD_0000145</t>
+          <t>ORD_0012710</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -14744,7 +14744,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0012711</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -14815,7 +14815,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0012711</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -14886,7 +14886,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0012711</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -14957,7 +14957,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0012712</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -15028,7 +15028,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ORD_0000148</t>
+          <t>ORD_0012713</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -15099,7 +15099,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ORD_0000149</t>
+          <t>ORD_0012714</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -15170,7 +15170,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ORD_0000150</t>
+          <t>ORD_0012715</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -15241,7 +15241,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ORD_0000151</t>
+          <t>ORD_0012716</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -15312,7 +15312,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0012717</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -15387,7 +15387,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ORD_0000153</t>
+          <t>ORD_0012718</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -15458,7 +15458,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ORD_0000154</t>
+          <t>ORD_0012719</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -15533,7 +15533,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0012720</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -15604,7 +15604,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0012720</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -15675,7 +15675,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0012720</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -15746,7 +15746,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0012720</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -15817,7 +15817,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ORD_0000156</t>
+          <t>ORD_0012721</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -15892,7 +15892,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ORD_0000157</t>
+          <t>ORD_0012722</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -15963,7 +15963,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ORD_0000158</t>
+          <t>ORD_0012723</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -16034,7 +16034,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ORD_0000159</t>
+          <t>ORD_0012724</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -16105,7 +16105,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ORD_0000160</t>
+          <t>ORD_0012725</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -16180,7 +16180,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ORD_0000161</t>
+          <t>ORD_0012726</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -16251,7 +16251,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ORD_0000162</t>
+          <t>ORD_0012727</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -16322,7 +16322,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ORD_0000163</t>
+          <t>ORD_0012728</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -16397,7 +16397,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0012729</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -16468,7 +16468,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ORD_0000165</t>
+          <t>ORD_0012730</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -16543,7 +16543,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ORD_0000166</t>
+          <t>ORD_0012731</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -16614,7 +16614,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ORD_0000167</t>
+          <t>ORD_0012732</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -16685,7 +16685,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ORD_0000168</t>
+          <t>ORD_0012733</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -16756,7 +16756,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ORD_0000168</t>
+          <t>ORD_0012733</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -16827,7 +16827,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ORD_0000169</t>
+          <t>ORD_0012734</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -16898,7 +16898,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0012735</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -16973,7 +16973,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ORD_0000171</t>
+          <t>ORD_0012736</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -17044,7 +17044,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ORD_0000172</t>
+          <t>ORD_0012737</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -17115,7 +17115,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0012738</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -17186,7 +17186,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ORD_0000174</t>
+          <t>ORD_0012739</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -17257,7 +17257,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ORD_0000175</t>
+          <t>ORD_0012740</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -17332,7 +17332,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ORD_0000175</t>
+          <t>ORD_0012740</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -17407,7 +17407,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ORD_0000176</t>
+          <t>ORD_0012741</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -17478,7 +17478,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ORD_0000177</t>
+          <t>ORD_0012742</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -17549,7 +17549,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ORD_0000178</t>
+          <t>ORD_0012743</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -17620,7 +17620,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ORD_0000179</t>
+          <t>ORD_0012744</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -17695,7 +17695,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ORD_0000180</t>
+          <t>ORD_0012745</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -17766,7 +17766,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ORD_0000181</t>
+          <t>ORD_0012746</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -17837,7 +17837,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ORD_0000182</t>
+          <t>ORD_0012747</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -17908,7 +17908,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ORD_0000183</t>
+          <t>ORD_0012748</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -17979,7 +17979,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ORD_0000183</t>
+          <t>ORD_0012748</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -18050,7 +18050,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ORD_0000184</t>
+          <t>ORD_0012749</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -18125,7 +18125,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ORD_0000185</t>
+          <t>ORD_0012750</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -18196,7 +18196,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ORD_0000185</t>
+          <t>ORD_0012750</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -18267,7 +18267,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ORD_0000185</t>
+          <t>ORD_0012750</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -18338,7 +18338,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ORD_0000186</t>
+          <t>ORD_0012751</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -18409,7 +18409,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ORD_0000187</t>
+          <t>ORD_0012752</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -18480,7 +18480,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ORD_0000188</t>
+          <t>ORD_0012753</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -18551,7 +18551,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ORD_0000189</t>
+          <t>ORD_0012754</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -18622,7 +18622,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ORD_0000190</t>
+          <t>ORD_0012755</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -18693,7 +18693,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ORD_0000191</t>
+          <t>ORD_0012756</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -18764,7 +18764,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ORD_0000192</t>
+          <t>ORD_0012757</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -18835,7 +18835,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ORD_0000193</t>
+          <t>ORD_0012758</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -18906,7 +18906,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ORD_0000194</t>
+          <t>ORD_0012759</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -18977,7 +18977,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ORD_0000195</t>
+          <t>ORD_0012760</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -19048,7 +19048,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0012761</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -19119,7 +19119,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0012761</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -19190,7 +19190,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0012761</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -19261,7 +19261,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0012761</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -19332,7 +19332,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0012761</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -19403,7 +19403,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0012761</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -19474,7 +19474,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ORD_0000197</t>
+          <t>ORD_0012762</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -19545,7 +19545,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0012763</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -19616,7 +19616,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ORD_0000199</t>
+          <t>ORD_0012764</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -19687,7 +19687,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ORD_0000200</t>
+          <t>ORD_0012765</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -19758,7 +19758,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0012766</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -19829,7 +19829,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0012767</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -19900,7 +19900,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0012767</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -19971,7 +19971,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0012768</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -20046,7 +20046,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0012768</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -20121,7 +20121,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0012768</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -20196,7 +20196,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0012768</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -20271,7 +20271,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0012768</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -20346,7 +20346,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0012768</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -20421,7 +20421,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0012768</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -20496,7 +20496,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ORD_0000204</t>
+          <t>ORD_0012769</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -20571,7 +20571,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ORD_0000205</t>
+          <t>ORD_0012770</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -20642,7 +20642,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ORD_0000205</t>
+          <t>ORD_0012770</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -20713,7 +20713,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ORD_0000206</t>
+          <t>ORD_0012771</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -20784,7 +20784,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ORD_0000207</t>
+          <t>ORD_0012772</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -20855,7 +20855,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ORD_0000207</t>
+          <t>ORD_0012772</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -20926,7 +20926,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ORD_0000208</t>
+          <t>ORD_0012773</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -20997,7 +20997,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ORD_0000209</t>
+          <t>ORD_0012774</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -21072,7 +21072,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ORD_0000210</t>
+          <t>ORD_0012775</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -21143,7 +21143,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ORD_0000211</t>
+          <t>ORD_0012776</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -21218,7 +21218,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ORD_0000212</t>
+          <t>ORD_0012777</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -21289,7 +21289,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ORD_0000213</t>
+          <t>ORD_0012778</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -21360,7 +21360,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0012779</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -21435,7 +21435,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ORD_0000215</t>
+          <t>ORD_0012780</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -21506,7 +21506,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ORD_0000216</t>
+          <t>ORD_0012781</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -21577,7 +21577,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ORD_0000217</t>
+          <t>ORD_0012782</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -21648,7 +21648,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ORD_0000218</t>
+          <t>ORD_0012783</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -21719,7 +21719,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ORD_0000219</t>
+          <t>ORD_0012784</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -21794,7 +21794,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ORD_0000219</t>
+          <t>ORD_0012784</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -21869,7 +21869,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ORD_0000220</t>
+          <t>ORD_0012785</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -21940,7 +21940,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ORD_0000220</t>
+          <t>ORD_0012785</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -22011,7 +22011,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ORD_0000221</t>
+          <t>ORD_0012786</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -22082,7 +22082,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ORD_0000222</t>
+          <t>ORD_0012787</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -22157,7 +22157,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ORD_0000223</t>
+          <t>ORD_0012788</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -22228,7 +22228,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ORD_0000224</t>
+          <t>ORD_0012789</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -22299,7 +22299,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0012790</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -22370,7 +22370,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0012790</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -22441,7 +22441,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ORD_0000226</t>
+          <t>ORD_0012791</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -22512,7 +22512,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ORD_0000226</t>
+          <t>ORD_0012791</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -22583,7 +22583,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ORD_0000227</t>
+          <t>ORD_0012792</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -22654,7 +22654,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ORD_0000228</t>
+          <t>ORD_0012793</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -22725,7 +22725,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ORD_0000228</t>
+          <t>ORD_0012793</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -22796,7 +22796,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0012794</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -22867,7 +22867,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0012794</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -22938,7 +22938,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0012794</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -23009,7 +23009,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ORD_0000230</t>
+          <t>ORD_0012795</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -23080,7 +23080,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ORD_0000231</t>
+          <t>ORD_0012796</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -23151,7 +23151,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0012797</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -23222,7 +23222,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ORD_0000233</t>
+          <t>ORD_0012798</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -23293,7 +23293,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ORD_0000234</t>
+          <t>ORD_0012799</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -23364,7 +23364,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ORD_0000235</t>
+          <t>ORD_0012800</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -23435,7 +23435,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0012801</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -23506,7 +23506,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ORD_0000237</t>
+          <t>ORD_0012802</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -23577,7 +23577,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ORD_0000238</t>
+          <t>ORD_0012803</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -23652,7 +23652,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ORD_0000239</t>
+          <t>ORD_0012804</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -23723,7 +23723,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0012805</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -23794,7 +23794,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0012805</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -23865,7 +23865,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0012805</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -23936,7 +23936,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0012805</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -24007,7 +24007,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0012806</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -24078,7 +24078,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0012806</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -24149,7 +24149,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0012806</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -24220,7 +24220,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0012806</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -24291,7 +24291,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ORD_0000242</t>
+          <t>ORD_0012807</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -24362,7 +24362,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ORD_0000243</t>
+          <t>ORD_0012808</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -24433,7 +24433,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ORD_0000243</t>
+          <t>ORD_0012808</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -24504,7 +24504,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ORD_0000243</t>
+          <t>ORD_0012808</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -24575,7 +24575,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0012809</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -24646,7 +24646,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0012809</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -24717,7 +24717,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0012809</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -24788,7 +24788,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ORD_0000245</t>
+          <t>ORD_0012810</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -24859,7 +24859,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ORD_0000246</t>
+          <t>ORD_0012811</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -24930,7 +24930,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ORD_0000247</t>
+          <t>ORD_0012812</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -25001,7 +25001,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ORD_0000248</t>
+          <t>ORD_0012813</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -25072,7 +25072,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ORD_0000248</t>
+          <t>ORD_0012813</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -25143,7 +25143,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ORD_0000248</t>
+          <t>ORD_0012813</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -25214,7 +25214,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ORD_0000249</t>
+          <t>ORD_0012814</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -25285,7 +25285,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0012815</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -25356,7 +25356,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ORD_0000251</t>
+          <t>ORD_0012816</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -25427,7 +25427,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0012817</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -25498,7 +25498,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ORD_0000253</t>
+          <t>ORD_0012818</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -25569,7 +25569,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ORD_0000254</t>
+          <t>ORD_0012819</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -25640,7 +25640,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ORD_0000255</t>
+          <t>ORD_0012820</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -25711,7 +25711,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ORD_0000256</t>
+          <t>ORD_0012821</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -25782,7 +25782,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ORD_0000257</t>
+          <t>ORD_0012822</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -25857,7 +25857,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ORD_0000258</t>
+          <t>ORD_0012823</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -25928,7 +25928,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ORD_0000259</t>
+          <t>ORD_0012824</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -25999,7 +25999,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0012825</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -26070,7 +26070,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0012825</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -26141,7 +26141,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0012825</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -26212,7 +26212,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0012825</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -26283,7 +26283,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0012825</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -26354,7 +26354,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0012825</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -26425,7 +26425,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0012826</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -26496,7 +26496,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0012826</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -26567,7 +26567,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ORD_0000262</t>
+          <t>ORD_0012827</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -26638,7 +26638,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ORD_0000263</t>
+          <t>ORD_0012828</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -26709,7 +26709,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ORD_0000264</t>
+          <t>ORD_0012829</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -26780,7 +26780,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0012830</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -26851,7 +26851,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0012830</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -26922,7 +26922,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0012830</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -26993,7 +26993,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0012830</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -27064,7 +27064,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0012830</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -27135,7 +27135,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ORD_0000266</t>
+          <t>ORD_0012831</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -27210,7 +27210,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ORD_0000267</t>
+          <t>ORD_0012832</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -27281,7 +27281,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ORD_0000268</t>
+          <t>ORD_0012833</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -27356,7 +27356,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0012834</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -27427,7 +27427,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ORD_0000270</t>
+          <t>ORD_0012835</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -27498,7 +27498,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ORD_0000271</t>
+          <t>ORD_0012836</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -27569,7 +27569,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ORD_0000272</t>
+          <t>ORD_0012837</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -27640,7 +27640,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0012838</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -27715,7 +27715,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0012838</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -27790,7 +27790,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0012838</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -27865,7 +27865,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ORD_0000274</t>
+          <t>ORD_0012839</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -27936,7 +27936,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ORD_0000275</t>
+          <t>ORD_0012840</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -28007,7 +28007,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ORD_0000275</t>
+          <t>ORD_0012840</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -28078,7 +28078,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ORD_0000275</t>
+          <t>ORD_0012840</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -28149,7 +28149,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ORD_0000276</t>
+          <t>ORD_0012841</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -28220,7 +28220,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ORD_0000277</t>
+          <t>ORD_0012842</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -28291,7 +28291,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ORD_0000278</t>
+          <t>ORD_0012843</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -28362,7 +28362,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ORD_0000279</t>
+          <t>ORD_0012844</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -28433,7 +28433,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ORD_0000280</t>
+          <t>ORD_0012845</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -28504,7 +28504,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ORD_0000281</t>
+          <t>ORD_0012846</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -28575,7 +28575,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ORD_0000281</t>
+          <t>ORD_0012846</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -28646,7 +28646,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ORD_0000282</t>
+          <t>ORD_0012847</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -28717,7 +28717,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ORD_0000283</t>
+          <t>ORD_0012848</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -28788,7 +28788,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ORD_0000283</t>
+          <t>ORD_0012848</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -28859,7 +28859,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ORD_0000283</t>
+          <t>ORD_0012848</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -28930,7 +28930,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ORD_0000284</t>
+          <t>ORD_0012849</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -29001,7 +29001,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ORD_0000284</t>
+          <t>ORD_0012849</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -29072,7 +29072,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ORD_0000285</t>
+          <t>ORD_0012850</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -29143,7 +29143,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ORD_0000286</t>
+          <t>ORD_0012851</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -29214,7 +29214,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ORD_0000287</t>
+          <t>ORD_0012852</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -29285,7 +29285,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ORD_0000288</t>
+          <t>ORD_0012853</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -29356,7 +29356,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ORD_0000289</t>
+          <t>ORD_0012854</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -29427,7 +29427,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0012855</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -29498,7 +29498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0012855</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -29569,7 +29569,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0012855</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -29640,7 +29640,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0012855</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -29711,7 +29711,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0012855</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -29782,7 +29782,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ORD_0000291</t>
+          <t>ORD_0012856</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -29853,7 +29853,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0012857</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -29924,7 +29924,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0012857</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -29995,7 +29995,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0012858</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -30066,7 +30066,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ORD_0000294</t>
+          <t>ORD_0012859</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -30141,7 +30141,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>ORD_0000295</t>
+          <t>ORD_0012860</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -30212,7 +30212,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ORD_0000296</t>
+          <t>ORD_0012861</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -30283,7 +30283,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ORD_0000297</t>
+          <t>ORD_0012862</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -30354,7 +30354,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ORD_0000298</t>
+          <t>ORD_0012863</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -30425,7 +30425,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ORD_0000299</t>
+          <t>ORD_0012864</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -30496,7 +30496,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ORD_0000299</t>
+          <t>ORD_0012864</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -30567,7 +30567,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ORD_0000299</t>
+          <t>ORD_0012864</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -30638,7 +30638,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ORD_0000300</t>
+          <t>ORD_0012865</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -30713,7 +30713,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ORD_0000301</t>
+          <t>ORD_0012866</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -30784,7 +30784,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ORD_0000302</t>
+          <t>ORD_0012867</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -30855,7 +30855,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ORD_0000303</t>
+          <t>ORD_0012868</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -30926,7 +30926,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ORD_0000304</t>
+          <t>ORD_0012869</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -30997,7 +30997,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ORD_0000304</t>
+          <t>ORD_0012869</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -31068,7 +31068,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ORD_0000305</t>
+          <t>ORD_0012870</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -31139,7 +31139,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0012871</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -31210,7 +31210,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0012871</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -31281,7 +31281,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ORD_0000307</t>
+          <t>ORD_0012872</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -31356,7 +31356,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0012873</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -31427,7 +31427,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ORD_0000309</t>
+          <t>ORD_0012874</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -31498,7 +31498,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ORD_0000310</t>
+          <t>ORD_0012875</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -31569,7 +31569,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ORD_0000311</t>
+          <t>ORD_0012876</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -31640,7 +31640,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ORD_0000312</t>
+          <t>ORD_0012877</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -31711,7 +31711,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0012878</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -31786,7 +31786,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ORD_0000314</t>
+          <t>ORD_0012879</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -31861,7 +31861,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ORD_0000315</t>
+          <t>ORD_0012880</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -31932,7 +31932,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ORD_0000316</t>
+          <t>ORD_0012881</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -32007,7 +32007,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ORD_0000317</t>
+          <t>ORD_0012882</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -32078,7 +32078,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ORD_0000318</t>
+          <t>ORD_0012883</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -32149,7 +32149,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ORD_0000318</t>
+          <t>ORD_0012883</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -32220,7 +32220,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ORD_0000318</t>
+          <t>ORD_0012883</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -32291,7 +32291,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0012884</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -32362,7 +32362,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>ORD_0000320</t>
+          <t>ORD_0012885</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -32433,7 +32433,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>ORD_0000321</t>
+          <t>ORD_0012886</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -32508,7 +32508,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ORD_0000322</t>
+          <t>ORD_0012887</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -32579,7 +32579,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ORD_0000322</t>
+          <t>ORD_0012887</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -32650,7 +32650,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>ORD_0000322</t>
+          <t>ORD_0012887</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -32721,7 +32721,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ORD_0000323</t>
+          <t>ORD_0012888</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -32796,7 +32796,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ORD_0000324</t>
+          <t>ORD_0012889</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -32867,7 +32867,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ORD_0000325</t>
+          <t>ORD_0012890</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -32938,7 +32938,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>ORD_0000326</t>
+          <t>ORD_0012891</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -33009,7 +33009,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>ORD_0000326</t>
+          <t>ORD_0012891</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -33080,7 +33080,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>ORD_0000327</t>
+          <t>ORD_0012892</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -33151,7 +33151,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>ORD_0000328</t>
+          <t>ORD_0012893</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -33222,7 +33222,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ORD_0000329</t>
+          <t>ORD_0012894</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -33297,7 +33297,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0012895</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -33368,7 +33368,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0012896</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -33439,7 +33439,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0012896</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -33510,7 +33510,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>ORD_0000332</t>
+          <t>ORD_0012897</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -33585,7 +33585,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0012898</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -33660,7 +33660,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>ORD_0000334</t>
+          <t>ORD_0012899</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -33731,7 +33731,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0012900</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -33802,7 +33802,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0012900</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -33873,7 +33873,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0012900</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -33944,7 +33944,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0012901</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -34015,7 +34015,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ORD_0000337</t>
+          <t>ORD_0012902</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -34086,7 +34086,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0012903</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -34157,7 +34157,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>ORD_0000339</t>
+          <t>ORD_0012904</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -34228,7 +34228,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ORD_0000339</t>
+          <t>ORD_0012904</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -34299,7 +34299,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>ORD_0000340</t>
+          <t>ORD_0012905</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -34370,7 +34370,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0012906</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -34445,7 +34445,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>ORD_0000342</t>
+          <t>ORD_0012907</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -34516,7 +34516,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>ORD_0000343</t>
+          <t>ORD_0012908</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -34591,7 +34591,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0012909</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -34662,7 +34662,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0012909</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -34733,7 +34733,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>ORD_0000345</t>
+          <t>ORD_0012910</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -34804,7 +34804,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ORD_0000345</t>
+          <t>ORD_0012910</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -34875,7 +34875,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>ORD_0000346</t>
+          <t>ORD_0012911</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -34946,7 +34946,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0012912</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -35017,7 +35017,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>ORD_0000348</t>
+          <t>ORD_0012913</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -35088,7 +35088,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ORD_0000348</t>
+          <t>ORD_0012913</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -35159,7 +35159,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>ORD_0000349</t>
+          <t>ORD_0012914</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -35230,7 +35230,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>ORD_0000350</t>
+          <t>ORD_0012915</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -35301,7 +35301,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>ORD_0000351</t>
+          <t>ORD_0012916</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -35372,7 +35372,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ORD_0000352</t>
+          <t>ORD_0012917</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -35443,7 +35443,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ORD_0000353</t>
+          <t>ORD_0012918</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -35514,7 +35514,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>ORD_0000353</t>
+          <t>ORD_0012918</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -35585,7 +35585,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>ORD_0000354</t>
+          <t>ORD_0012919</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -35656,7 +35656,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>ORD_0000355</t>
+          <t>ORD_0012920</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -35727,7 +35727,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ORD_0000356</t>
+          <t>ORD_0012921</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -35802,7 +35802,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ORD_0000357</t>
+          <t>ORD_0012922</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -35873,7 +35873,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>ORD_0000358</t>
+          <t>ORD_0012923</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -35944,7 +35944,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ORD_0000359</t>
+          <t>ORD_0012924</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -36015,7 +36015,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>ORD_0000360</t>
+          <t>ORD_0012925</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -36090,7 +36090,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0012926</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -36161,7 +36161,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0012926</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -36232,7 +36232,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0012926</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -36303,7 +36303,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ORD_0000362</t>
+          <t>ORD_0012927</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -36374,7 +36374,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ORD_0000363</t>
+          <t>ORD_0012928</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -36445,7 +36445,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0012929</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -36516,7 +36516,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0012929</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -36587,7 +36587,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0012929</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -36658,7 +36658,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0012929</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -36729,7 +36729,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0012929</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -36800,7 +36800,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0012929</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -36871,7 +36871,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ORD_0000365</t>
+          <t>ORD_0012930</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -36942,7 +36942,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0012931</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -37017,7 +37017,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>ORD_0000367</t>
+          <t>ORD_0012932</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -37088,7 +37088,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ORD_0000368</t>
+          <t>ORD_0012933</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -37159,7 +37159,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0012934</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -37230,7 +37230,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ORD_0000370</t>
+          <t>ORD_0012935</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -37301,7 +37301,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ORD_0000371</t>
+          <t>ORD_0012936</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -37376,7 +37376,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>ORD_0000372</t>
+          <t>ORD_0012937</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -37451,7 +37451,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>ORD_0000373</t>
+          <t>ORD_0012938</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -37526,7 +37526,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>ORD_0000374</t>
+          <t>ORD_0012939</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -37597,7 +37597,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>ORD_0000375</t>
+          <t>ORD_0012940</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -37672,7 +37672,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ORD_0000376</t>
+          <t>ORD_0012941</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -37743,7 +37743,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>ORD_0000376</t>
+          <t>ORD_0012941</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -37814,7 +37814,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>ORD_0000376</t>
+          <t>ORD_0012941</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -37885,7 +37885,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ORD_0000377</t>
+          <t>ORD_0012942</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -37956,7 +37956,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ORD_0000378</t>
+          <t>ORD_0012943</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -38027,7 +38027,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>ORD_0000379</t>
+          <t>ORD_0012944</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -38098,7 +38098,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>ORD_0000379</t>
+          <t>ORD_0012944</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -38169,7 +38169,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>ORD_0000380</t>
+          <t>ORD_0012945</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -38244,7 +38244,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>ORD_0000381</t>
+          <t>ORD_0012946</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -38315,7 +38315,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>ORD_0000382</t>
+          <t>ORD_0012947</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -38386,7 +38386,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>ORD_0000383</t>
+          <t>ORD_0012948</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -38457,7 +38457,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>ORD_0000384</t>
+          <t>ORD_0012949</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -38528,7 +38528,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>ORD_0000385</t>
+          <t>ORD_0012950</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -38599,7 +38599,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>ORD_0000386</t>
+          <t>ORD_0012951</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -38670,7 +38670,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>ORD_0000387</t>
+          <t>ORD_0012952</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -38741,7 +38741,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>ORD_0000388</t>
+          <t>ORD_0012953</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -38812,7 +38812,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>ORD_0000389</t>
+          <t>ORD_0012954</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -38883,7 +38883,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>ORD_0000390</t>
+          <t>ORD_0012955</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -38954,7 +38954,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>ORD_0000391</t>
+          <t>ORD_0012956</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -39025,7 +39025,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>ORD_0000391</t>
+          <t>ORD_0012956</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -39096,7 +39096,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>ORD_0000392</t>
+          <t>ORD_0012957</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -39167,7 +39167,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>ORD_0000393</t>
+          <t>ORD_0012958</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -39238,7 +39238,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>ORD_0000394</t>
+          <t>ORD_0012959</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -39309,7 +39309,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>ORD_0000395</t>
+          <t>ORD_0012960</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -39380,7 +39380,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>ORD_0000395</t>
+          <t>ORD_0012960</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -39451,7 +39451,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>ORD_0000396</t>
+          <t>ORD_0012961</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -39522,7 +39522,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>ORD_0000396</t>
+          <t>ORD_0012961</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -39593,7 +39593,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>ORD_0000396</t>
+          <t>ORD_0012961</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -39664,7 +39664,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>ORD_0000396</t>
+          <t>ORD_0012961</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -39735,7 +39735,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>ORD_0000397</t>
+          <t>ORD_0012962</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -39806,7 +39806,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>ORD_0000398</t>
+          <t>ORD_0012963</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -39877,7 +39877,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0012964</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -39948,7 +39948,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>ORD_0000400</t>
+          <t>ORD_0012965</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -40023,7 +40023,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>ORD_0000401</t>
+          <t>ORD_0012966</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -40094,7 +40094,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>ORD_0000402</t>
+          <t>ORD_0012967</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -40169,7 +40169,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>ORD_0000403</t>
+          <t>ORD_0012968</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -40240,7 +40240,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>ORD_0000404</t>
+          <t>ORD_0012969</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -40311,7 +40311,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>ORD_0000405</t>
+          <t>ORD_0012970</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -40382,7 +40382,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>ORD_0000406</t>
+          <t>ORD_0012971</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -40453,7 +40453,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>ORD_0000407</t>
+          <t>ORD_0012972</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -40524,7 +40524,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>ORD_0000408</t>
+          <t>ORD_0012973</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -40595,7 +40595,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>ORD_0000408</t>
+          <t>ORD_0012973</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -40666,7 +40666,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>ORD_0000409</t>
+          <t>ORD_0012974</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -40741,7 +40741,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>ORD_0000410</t>
+          <t>ORD_0012975</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -40812,7 +40812,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>ORD_0000411</t>
+          <t>ORD_0012976</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -40883,7 +40883,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0012977</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -40958,7 +40958,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>ORD_0000413</t>
+          <t>ORD_0012978</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -41029,7 +41029,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>ORD_0000414</t>
+          <t>ORD_0012979</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -41100,7 +41100,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>ORD_0000415</t>
+          <t>ORD_0012980</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -41171,7 +41171,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>ORD_0000416</t>
+          <t>ORD_0012981</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -41242,7 +41242,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>ORD_0000417</t>
+          <t>ORD_0012982</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -41313,7 +41313,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>ORD_0000418</t>
+          <t>ORD_0012983</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -41384,7 +41384,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>ORD_0000418</t>
+          <t>ORD_0012983</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -41455,7 +41455,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>ORD_0000419</t>
+          <t>ORD_0012984</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -41526,7 +41526,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>ORD_0000420</t>
+          <t>ORD_0012985</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -41597,7 +41597,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>ORD_0000421</t>
+          <t>ORD_0012986</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -41668,7 +41668,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>ORD_0000422</t>
+          <t>ORD_0012987</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -41739,7 +41739,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0012988</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -41814,7 +41814,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0012988</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -41889,7 +41889,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0012988</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -41964,7 +41964,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0012988</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -42039,7 +42039,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0012988</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -42114,7 +42114,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0012988</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -42189,7 +42189,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>ORD_0000424</t>
+          <t>ORD_0012989</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -42260,7 +42260,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>ORD_0000424</t>
+          <t>ORD_0012989</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -42331,7 +42331,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>ORD_0000424</t>
+          <t>ORD_0012989</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -42402,7 +42402,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>ORD_0000424</t>
+          <t>ORD_0012989</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -42473,7 +42473,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>ORD_0000424</t>
+          <t>ORD_0012989</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -42544,7 +42544,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>ORD_0000425</t>
+          <t>ORD_0012990</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -42615,7 +42615,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>ORD_0000425</t>
+          <t>ORD_0012990</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -42686,7 +42686,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>ORD_0000425</t>
+          <t>ORD_0012990</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -42757,7 +42757,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>ORD_0000426</t>
+          <t>ORD_0012991</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -42828,7 +42828,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>ORD_0000427</t>
+          <t>ORD_0012992</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -42899,7 +42899,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>ORD_0000428</t>
+          <t>ORD_0012993</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -42970,7 +42970,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>ORD_0000429</t>
+          <t>ORD_0012994</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -43041,7 +43041,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>ORD_0000430</t>
+          <t>ORD_0012995</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -43116,7 +43116,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0012996</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -43191,7 +43191,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>ORD_0000432</t>
+          <t>ORD_0012997</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -43262,7 +43262,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>ORD_0000433</t>
+          <t>ORD_0012998</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -43333,7 +43333,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>ORD_0000434</t>
+          <t>ORD_0012999</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -43404,7 +43404,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>ORD_0000435</t>
+          <t>ORD_0013000</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -43475,7 +43475,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>ORD_0000436</t>
+          <t>ORD_0013001</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -43546,7 +43546,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>ORD_0000437</t>
+          <t>ORD_0013002</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -43621,7 +43621,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>ORD_0000438</t>
+          <t>ORD_0013003</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -43692,7 +43692,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>ORD_0000439</t>
+          <t>ORD_0013004</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -43763,7 +43763,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>ORD_0000440</t>
+          <t>ORD_0013005</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -43838,7 +43838,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>ORD_0000441</t>
+          <t>ORD_0013006</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -43909,7 +43909,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>ORD_0000442</t>
+          <t>ORD_0013007</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -43980,7 +43980,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>ORD_0000443</t>
+          <t>ORD_0013008</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -44051,7 +44051,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>ORD_0000444</t>
+          <t>ORD_0013009</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -44122,7 +44122,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>ORD_0000445</t>
+          <t>ORD_0013010</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -44197,7 +44197,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>ORD_0000446</t>
+          <t>ORD_0013011</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -44268,7 +44268,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>ORD_0000447</t>
+          <t>ORD_0013012</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -44339,7 +44339,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>ORD_0000448</t>
+          <t>ORD_0013013</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -44414,7 +44414,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>ORD_0000449</t>
+          <t>ORD_0013014</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -44485,7 +44485,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>ORD_0000450</t>
+          <t>ORD_0013015</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -44556,7 +44556,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>ORD_0000451</t>
+          <t>ORD_0013016</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -44627,7 +44627,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>ORD_0000452</t>
+          <t>ORD_0013017</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -44698,7 +44698,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>ORD_0000453</t>
+          <t>ORD_0013018</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -44769,7 +44769,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>ORD_0000454</t>
+          <t>ORD_0013019</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -44840,7 +44840,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>ORD_0000455</t>
+          <t>ORD_0013020</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -44911,7 +44911,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>ORD_0000456</t>
+          <t>ORD_0013021</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -44982,7 +44982,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>ORD_0000457</t>
+          <t>ORD_0013022</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -45053,7 +45053,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>ORD_0000458</t>
+          <t>ORD_0013023</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -45124,7 +45124,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>ORD_0000459</t>
+          <t>ORD_0013024</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -45195,7 +45195,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>ORD_0000460</t>
+          <t>ORD_0013025</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -45266,7 +45266,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>ORD_0000461</t>
+          <t>ORD_0013026</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -45337,7 +45337,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>ORD_0000462</t>
+          <t>ORD_0013027</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -45412,7 +45412,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>ORD_0000462</t>
+          <t>ORD_0013027</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -45487,7 +45487,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>ORD_0000463</t>
+          <t>ORD_0013028</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -45562,7 +45562,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>ORD_0000464</t>
+          <t>ORD_0013029</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -45633,7 +45633,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>ORD_0000465</t>
+          <t>ORD_0013030</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -45708,7 +45708,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>ORD_0000466</t>
+          <t>ORD_0013031</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -45779,7 +45779,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>ORD_0000467</t>
+          <t>ORD_0013032</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -45850,7 +45850,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>ORD_0000468</t>
+          <t>ORD_0013033</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -45921,7 +45921,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>ORD_0000469</t>
+          <t>ORD_0013034</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -45992,7 +45992,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>ORD_0000470</t>
+          <t>ORD_0013035</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -46063,7 +46063,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>ORD_0000470</t>
+          <t>ORD_0013035</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -46134,7 +46134,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>ORD_0000471</t>
+          <t>ORD_0013036</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -46205,7 +46205,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>ORD_0000472</t>
+          <t>ORD_0013037</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -46276,7 +46276,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>ORD_0000473</t>
+          <t>ORD_0013038</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -46347,7 +46347,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>ORD_0000474</t>
+          <t>ORD_0013039</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -46418,7 +46418,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>ORD_0000475</t>
+          <t>ORD_0013040</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -46489,7 +46489,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>ORD_0000476</t>
+          <t>ORD_0013041</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -46560,7 +46560,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>ORD_0000477</t>
+          <t>ORD_0013042</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -46631,7 +46631,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>ORD_0000478</t>
+          <t>ORD_0013043</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -46706,7 +46706,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>ORD_0000479</t>
+          <t>ORD_0013044</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -46777,7 +46777,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>ORD_0000480</t>
+          <t>ORD_0013045</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -46848,7 +46848,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>ORD_0000481</t>
+          <t>ORD_0013046</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -46919,7 +46919,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>ORD_0000482</t>
+          <t>ORD_0013047</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -46990,7 +46990,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>ORD_0000483</t>
+          <t>ORD_0013048</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -47061,7 +47061,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>ORD_0000484</t>
+          <t>ORD_0013049</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -47132,7 +47132,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>ORD_0000484</t>
+          <t>ORD_0013049</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -47203,7 +47203,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>ORD_0000485</t>
+          <t>ORD_0013050</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -47274,7 +47274,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>ORD_0000486</t>
+          <t>ORD_0013051</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -47345,7 +47345,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>ORD_0000487</t>
+          <t>ORD_0013052</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -47416,7 +47416,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>ORD_0000488</t>
+          <t>ORD_0013053</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -47487,7 +47487,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>ORD_0000488</t>
+          <t>ORD_0013053</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -47558,7 +47558,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>ORD_0000488</t>
+          <t>ORD_0013053</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -47629,7 +47629,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>ORD_0000489</t>
+          <t>ORD_0013054</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -47704,7 +47704,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>ORD_0000490</t>
+          <t>ORD_0013055</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -47775,7 +47775,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>ORD_0000491</t>
+          <t>ORD_0013056</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -47846,7 +47846,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>ORD_0000492</t>
+          <t>ORD_0013057</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -47917,7 +47917,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>ORD_0000493</t>
+          <t>ORD_0013058</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -47992,7 +47992,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>ORD_0000494</t>
+          <t>ORD_0013059</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -48063,7 +48063,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>ORD_0000495</t>
+          <t>ORD_0013060</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -48134,7 +48134,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>ORD_0000496</t>
+          <t>ORD_0013061</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -48205,7 +48205,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>ORD_0000497</t>
+          <t>ORD_0013062</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -48276,7 +48276,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>ORD_0000498</t>
+          <t>ORD_0013063</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -48347,7 +48347,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>ORD_0000499</t>
+          <t>ORD_0013064</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -48418,7 +48418,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>ORD_0000500</t>
+          <t>ORD_0013065</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -48489,7 +48489,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>ORD_0000501</t>
+          <t>ORD_0013066</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -48560,7 +48560,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>ORD_0000502</t>
+          <t>ORD_0013067</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -48631,7 +48631,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>ORD_0000503</t>
+          <t>ORD_0013068</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -48702,7 +48702,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>ORD_0000504</t>
+          <t>ORD_0013069</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -48773,7 +48773,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>ORD_0000504</t>
+          <t>ORD_0013069</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -48844,7 +48844,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>ORD_0000505</t>
+          <t>ORD_0013070</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -48919,7 +48919,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>ORD_0000506</t>
+          <t>ORD_0013071</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -48990,7 +48990,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>ORD_0000506</t>
+          <t>ORD_0013071</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -49061,7 +49061,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>ORD_0000507</t>
+          <t>ORD_0013072</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -49132,7 +49132,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>ORD_0000508</t>
+          <t>ORD_0013073</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -49207,7 +49207,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>ORD_0000509</t>
+          <t>ORD_0013074</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -49278,7 +49278,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>ORD_0000510</t>
+          <t>ORD_0013075</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -49349,7 +49349,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>ORD_0000511</t>
+          <t>ORD_0013076</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -49420,7 +49420,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>ORD_0000511</t>
+          <t>ORD_0013076</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -49491,7 +49491,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>ORD_0000512</t>
+          <t>ORD_0013077</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -49562,7 +49562,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>ORD_0000512</t>
+          <t>ORD_0013077</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -49633,7 +49633,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>ORD_0000513</t>
+          <t>ORD_0013078</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -49704,7 +49704,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>ORD_0000514</t>
+          <t>ORD_0013079</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -49775,7 +49775,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>ORD_0000515</t>
+          <t>ORD_0013080</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -49846,7 +49846,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>ORD_0000516</t>
+          <t>ORD_0013081</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -49917,7 +49917,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>ORD_0000517</t>
+          <t>ORD_0013082</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -49988,7 +49988,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>ORD_0000518</t>
+          <t>ORD_0013083</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -50059,7 +50059,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>ORD_0000519</t>
+          <t>ORD_0013084</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -50130,7 +50130,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>ORD_0000520</t>
+          <t>ORD_0013085</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -50201,7 +50201,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>ORD_0000521</t>
+          <t>ORD_0013086</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -50272,7 +50272,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>ORD_0000522</t>
+          <t>ORD_0013087</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -50343,7 +50343,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>ORD_0000523</t>
+          <t>ORD_0013088</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -50414,7 +50414,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>ORD_0000523</t>
+          <t>ORD_0013088</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -50485,7 +50485,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>ORD_0000523</t>
+          <t>ORD_0013088</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -50556,7 +50556,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>ORD_0000524</t>
+          <t>ORD_0013089</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -50627,7 +50627,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>ORD_0000525</t>
+          <t>ORD_0013090</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -50698,7 +50698,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>ORD_0000525</t>
+          <t>ORD_0013090</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -50769,7 +50769,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>ORD_0000526</t>
+          <t>ORD_0013091</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -50840,7 +50840,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>ORD_0000527</t>
+          <t>ORD_0013092</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -50911,7 +50911,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>ORD_0000528</t>
+          <t>ORD_0013093</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -50982,7 +50982,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>ORD_0000529</t>
+          <t>ORD_0013094</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -51057,7 +51057,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>ORD_0000530</t>
+          <t>ORD_0013095</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -51128,7 +51128,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>ORD_0000531</t>
+          <t>ORD_0013096</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -51199,7 +51199,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>ORD_0000532</t>
+          <t>ORD_0013097</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -51270,7 +51270,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>ORD_0000533</t>
+          <t>ORD_0013098</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -51341,7 +51341,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>ORD_0000534</t>
+          <t>ORD_0013099</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -51412,7 +51412,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>ORD_0000535</t>
+          <t>ORD_0013100</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -51483,7 +51483,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>ORD_0000536</t>
+          <t>ORD_0013101</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -51554,7 +51554,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>ORD_0000537</t>
+          <t>ORD_0013102</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -51625,7 +51625,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>ORD_0000538</t>
+          <t>ORD_0013103</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -51696,7 +51696,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>ORD_0000539</t>
+          <t>ORD_0013104</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -51767,7 +51767,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>ORD_0000540</t>
+          <t>ORD_0013105</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -51838,7 +51838,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>ORD_0000541</t>
+          <t>ORD_0013106</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -51909,7 +51909,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>ORD_0000542</t>
+          <t>ORD_0013107</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -51980,7 +51980,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>ORD_0000543</t>
+          <t>ORD_0013108</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -52051,7 +52051,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>ORD_0000543</t>
+          <t>ORD_0013108</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -52122,7 +52122,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>ORD_0000544</t>
+          <t>ORD_0013109</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -52193,7 +52193,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>ORD_0000545</t>
+          <t>ORD_0013110</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -52268,7 +52268,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>ORD_0000546</t>
+          <t>ORD_0013111</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -52343,7 +52343,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>ORD_0000547</t>
+          <t>ORD_0013112</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -52414,7 +52414,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>ORD_0000547</t>
+          <t>ORD_0013112</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -52485,7 +52485,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>ORD_0000547</t>
+          <t>ORD_0013112</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -52556,7 +52556,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>ORD_0000548</t>
+          <t>ORD_0013113</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -52627,7 +52627,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>ORD_0000549</t>
+          <t>ORD_0013114</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -52698,7 +52698,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>ORD_0000549</t>
+          <t>ORD_0013114</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -52769,7 +52769,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>ORD_0000550</t>
+          <t>ORD_0013115</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -52840,7 +52840,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>ORD_0000551</t>
+          <t>ORD_0013116</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -52911,7 +52911,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>ORD_0000552</t>
+          <t>ORD_0013117</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -52982,7 +52982,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>ORD_0000553</t>
+          <t>ORD_0013118</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -53053,7 +53053,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>ORD_0000554</t>
+          <t>ORD_0013119</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -53124,7 +53124,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>ORD_0000555</t>
+          <t>ORD_0013120</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -53195,7 +53195,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>ORD_0000555</t>
+          <t>ORD_0013120</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -53266,7 +53266,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>ORD_0000556</t>
+          <t>ORD_0013121</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -53337,7 +53337,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>ORD_0000557</t>
+          <t>ORD_0013122</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -53408,7 +53408,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>ORD_0000558</t>
+          <t>ORD_0013123</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -53479,7 +53479,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>ORD_0000559</t>
+          <t>ORD_0013124</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -53554,7 +53554,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>ORD_0000560</t>
+          <t>ORD_0013125</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -53625,7 +53625,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>ORD_0000560</t>
+          <t>ORD_0013125</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -53696,7 +53696,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>ORD_0000561</t>
+          <t>ORD_0013126</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -53771,7 +53771,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>ORD_0000562</t>
+          <t>ORD_0013127</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -53842,7 +53842,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>ORD_0000563</t>
+          <t>ORD_0013128</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -53913,7 +53913,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>ORD_0000564</t>
+          <t>ORD_0013129</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -53984,7 +53984,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>ORD_0000565</t>
+          <t>ORD_0013130</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -54055,7 +54055,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>ORD_0000565</t>
+          <t>ORD_0013130</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -54126,7 +54126,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>ORD_0000565</t>
+          <t>ORD_0013130</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -54197,7 +54197,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>ORD_0000566</t>
+          <t>ORD_0013131</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -54268,7 +54268,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>ORD_0000567</t>
+          <t>ORD_0013132</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -54339,7 +54339,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>ORD_0000568</t>
+          <t>ORD_0013133</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -54414,7 +54414,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>ORD_0000569</t>
+          <t>ORD_0013134</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -54485,7 +54485,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>ORD_0000570</t>
+          <t>ORD_0013135</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -54556,7 +54556,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>ORD_0000571</t>
+          <t>ORD_0013136</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -54627,7 +54627,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>ORD_0000571</t>
+          <t>ORD_0013136</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -54698,7 +54698,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>ORD_0000571</t>
+          <t>ORD_0013136</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -54769,7 +54769,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>ORD_0000571</t>
+          <t>ORD_0013136</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -54840,7 +54840,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>ORD_0000571</t>
+          <t>ORD_0013136</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -54911,7 +54911,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>ORD_0000572</t>
+          <t>ORD_0013137</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -54986,7 +54986,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>ORD_0000573</t>
+          <t>ORD_0013138</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -55057,7 +55057,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>ORD_0000574</t>
+          <t>ORD_0013139</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -55128,7 +55128,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>ORD_0000575</t>
+          <t>ORD_0013140</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -55199,7 +55199,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>ORD_0000575</t>
+          <t>ORD_0013140</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -55270,7 +55270,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>ORD_0000576</t>
+          <t>ORD_0013141</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -55341,7 +55341,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>ORD_0000577</t>
+          <t>ORD_0013142</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -55412,7 +55412,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>ORD_0000578</t>
+          <t>ORD_0013143</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -55483,7 +55483,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>ORD_0000579</t>
+          <t>ORD_0013144</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -55554,7 +55554,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>ORD_0000580</t>
+          <t>ORD_0013145</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -55625,7 +55625,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>ORD_0000581</t>
+          <t>ORD_0013146</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -55696,7 +55696,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>ORD_0000582</t>
+          <t>ORD_0013147</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -55767,7 +55767,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>ORD_0000583</t>
+          <t>ORD_0013148</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -55842,7 +55842,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>ORD_0000584</t>
+          <t>ORD_0013149</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -55913,7 +55913,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>ORD_0000584</t>
+          <t>ORD_0013149</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -55984,7 +55984,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>ORD_0000584</t>
+          <t>ORD_0013149</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -56055,7 +56055,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>ORD_0000585</t>
+          <t>ORD_0013150</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -56126,7 +56126,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>ORD_0000586</t>
+          <t>ORD_0013151</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -56197,7 +56197,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>ORD_0000587</t>
+          <t>ORD_0013152</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -56268,7 +56268,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>ORD_0000588</t>
+          <t>ORD_0013153</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -56339,7 +56339,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>ORD_0000589</t>
+          <t>ORD_0013154</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -56410,7 +56410,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>ORD_0000590</t>
+          <t>ORD_0013155</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -56481,7 +56481,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>ORD_0000591</t>
+          <t>ORD_0013156</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -56552,7 +56552,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>ORD_0000592</t>
+          <t>ORD_0013157</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -56623,7 +56623,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>ORD_0000593</t>
+          <t>ORD_0013158</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -56694,7 +56694,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>ORD_0000594</t>
+          <t>ORD_0013159</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -56765,7 +56765,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>ORD_0000594</t>
+          <t>ORD_0013159</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -56836,7 +56836,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>ORD_0000595</t>
+          <t>ORD_0013160</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -56907,7 +56907,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>ORD_0000596</t>
+          <t>ORD_0013161</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -56978,7 +56978,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>ORD_0000597</t>
+          <t>ORD_0013162</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -57049,7 +57049,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>ORD_0000598</t>
+          <t>ORD_0013163</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -57120,7 +57120,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>ORD_0000599</t>
+          <t>ORD_0013164</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -57195,7 +57195,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>ORD_0000600</t>
+          <t>ORD_0013165</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -57266,7 +57266,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>ORD_0000600</t>
+          <t>ORD_0013165</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -57337,7 +57337,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>ORD_0000601</t>
+          <t>ORD_0013166</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -57408,7 +57408,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>ORD_0000602</t>
+          <t>ORD_0013167</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -57483,7 +57483,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>ORD_0000603</t>
+          <t>ORD_0013168</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -57554,7 +57554,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>ORD_0000603</t>
+          <t>ORD_0013168</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -57625,7 +57625,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>ORD_0000604</t>
+          <t>ORD_0013169</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -57696,7 +57696,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>ORD_0000605</t>
+          <t>ORD_0013170</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -57767,7 +57767,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>ORD_0000606</t>
+          <t>ORD_0013171</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -57838,7 +57838,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>ORD_0000607</t>
+          <t>ORD_0013172</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -57909,7 +57909,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>ORD_0000608</t>
+          <t>ORD_0013173</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -57984,7 +57984,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>ORD_0000608</t>
+          <t>ORD_0013173</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -58059,7 +58059,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>ORD_0000609</t>
+          <t>ORD_0013174</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -58130,7 +58130,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>ORD_0000610</t>
+          <t>ORD_0013175</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -58201,7 +58201,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>ORD_0000611</t>
+          <t>ORD_0013176</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -58272,7 +58272,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>ORD_0000612</t>
+          <t>ORD_0013177</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -58343,7 +58343,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>ORD_0000613</t>
+          <t>ORD_0013178</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -58414,7 +58414,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>ORD_0000613</t>
+          <t>ORD_0013178</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -58485,7 +58485,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>ORD_0000614</t>
+          <t>ORD_0013179</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -58556,7 +58556,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>ORD_0000614</t>
+          <t>ORD_0013179</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -58627,7 +58627,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>ORD_0000615</t>
+          <t>ORD_0013180</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -58698,7 +58698,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>ORD_0000615</t>
+          <t>ORD_0013180</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -58769,7 +58769,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>ORD_0000616</t>
+          <t>ORD_0013181</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -58840,7 +58840,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>ORD_0000617</t>
+          <t>ORD_0013182</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -58911,7 +58911,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>ORD_0000618</t>
+          <t>ORD_0013183</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -58982,7 +58982,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>ORD_0000618</t>
+          <t>ORD_0013183</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -59053,7 +59053,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>ORD_0000619</t>
+          <t>ORD_0013184</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -59128,7 +59128,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>ORD_0000620</t>
+          <t>ORD_0013185</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
